--- a/manual_tests_Search.xlsx
+++ b/manual_tests_Search.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>TS Nummer</t>
   </si>
@@ -238,6 +238,18 @@
   </si>
   <si>
     <t xml:space="preserve">Ensure that adress list is accecible from other pages, including "My Orders" </t>
+  </si>
+  <si>
+    <t>Functional tests</t>
+  </si>
+  <si>
+    <t>Positive tests</t>
+  </si>
+  <si>
+    <t>Flow diagram, to trace test coverage:</t>
+  </si>
+  <si>
+    <t>Negative tests</t>
   </si>
 </sst>
 </file>
@@ -261,15 +273,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -324,11 +348,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,12 +382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -380,6 +420,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,16 +465,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>107950</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>1092200</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>158750</xdr:rowOff>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>1200150</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>615950</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -728,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,504 +809,542 @@
     <col min="7" max="16384" width="10.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F2" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-      <c r="D3" s="7" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="D4" s="7" t="s">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="6"/>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="8"/>
-      <c r="D5" s="7" t="s">
+    <row r="8" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="6"/>
+      <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="9" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="10"/>
-      <c r="D6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="7" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="8">
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B8" s="8"/>
-      <c r="D8" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" s="7" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="8"/>
       <c r="D9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="6"/>
+      <c r="D12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
-      <c r="D10" s="7" t="s">
+    <row r="13" spans="1:6" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="D13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="10"/>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="8"/>
-      <c r="D13" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" s="7" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="8"/>
       <c r="D14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="9" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="6"/>
+      <c r="D17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E17" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="8"/>
-      <c r="D15" s="7" t="s">
+    <row r="18" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="6"/>
+      <c r="D18" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="8"/>
-      <c r="D16" s="7" t="s">
+    <row r="19" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="6"/>
+      <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="10"/>
-      <c r="D17" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="73" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="12">
-        <v>4</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="8"/>
-      <c r="D19" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" s="7" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="8"/>
       <c r="D20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="8"/>
-      <c r="D21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B22" s="8"/>
-      <c r="D22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="9" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="10">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="6"/>
+      <c r="D22" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="8"/>
       <c r="D23" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="23" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+    </row>
+    <row r="25" spans="1:6" s="9" customFormat="1" ht="73" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="6"/>
+      <c r="D26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="6"/>
+      <c r="D27" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="10"/>
-      <c r="D24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:6" s="11" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="12">
-        <v>5</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="D26" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="10"/>
-      <c r="D27" s="9" t="s">
+      <c r="E27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="6"/>
+      <c r="D28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B29" s="6"/>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+      <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="73" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="12">
-        <v>6</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" s="9" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="10"/>
-      <c r="D29" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30" s="12">
-        <v>7</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="8"/>
       <c r="D31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="10"/>
+        <v>22</v>
+      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:6" s="9" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="10">
+        <v>5</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>3</v>
+      </c>
       <c r="D32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="6"/>
+      <c r="D33" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="7" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="8"/>
+      <c r="D34" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E34" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" s="11" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="F34" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="9" customFormat="1" ht="73" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="10">
+        <v>6</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" s="9" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="10"/>
-      <c r="D34" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="11" customFormat="1" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B35" s="12">
-        <v>9</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="D35" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="7" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="9" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="10">
+        <v>7</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="D37" s="9" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="13" customFormat="1" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="6"/>
+      <c r="D38" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="7" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="8"/>
+      <c r="D39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="9" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="10">
+        <v>8</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="7" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="8"/>
+      <c r="D41" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="11" customFormat="1" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B42" s="12">
         <v>10</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D42" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="13" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="13" t="s">
+    <row r="43" spans="1:6" s="11" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B43" s="12">
         <v>11</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F43" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="9" customFormat="1" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
+    <row r="44" spans="1:6" s="7" customFormat="1" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B44" s="8">
         <v>12</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F44" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="7" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7" t="s">
+    <row r="45" spans="1:6" s="5" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B45" s="6">
         <v>13</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C45" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E45" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B42" s="8"/>
-      <c r="D42" s="7" t="s">
+    <row r="46" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B46" s="6"/>
+      <c r="D46" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B43" s="8"/>
-      <c r="D43" s="7" t="s">
+    <row r="47" spans="1:6" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B47" s="6"/>
+      <c r="D47" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E47" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="9" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="10"/>
-      <c r="D44" s="9" t="s">
+    <row r="48" spans="1:6" s="7" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="8"/>
+      <c r="D48" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="E48" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="13" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="13" t="s">
+    <row r="49" spans="1:4" s="11" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B49" s="12">
         <v>14</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="D49" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="13" customFormat="1" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="13" t="s">
+    <row r="50" spans="1:4" s="11" customFormat="1" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B50" s="12">
         <v>15</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D50" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E18:E24"/>
+  <mergeCells count="4">
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="A3:XFD3"/>
+    <mergeCell ref="A4:XFD4"/>
+    <mergeCell ref="A24:XFD24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1255,16 +1357,16 @@
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>107950</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>88900</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>1092200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>158750</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>615950</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
